--- a/basicos_resultados_NIÑA.xlsx
+++ b/basicos_resultados_NIÑA.xlsx
@@ -3661,7 +3661,7 @@
         <v>44986</v>
       </c>
       <c r="B154" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -3670,11 +3670,11 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>CHAQUETA</t>
+          <t>BUZO</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>0.54</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="155">
@@ -3682,7 +3682,7 @@
         <v>44986</v>
       </c>
       <c r="B155" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -3691,11 +3691,11 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>CHAQUETA</t>
+          <t>BUZO</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>0.54</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="156">
@@ -3703,7 +3703,7 @@
         <v>45017</v>
       </c>
       <c r="B156" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -3712,11 +3712,11 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>CHAQUETA</t>
+          <t>BUZO</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>0.54</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="157">
@@ -3724,7 +3724,7 @@
         <v>45017</v>
       </c>
       <c r="B157" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -3733,11 +3733,11 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>CHAQUETA</t>
+          <t>BUZO</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>0.54</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="158">
@@ -3745,7 +3745,7 @@
         <v>45047</v>
       </c>
       <c r="B158" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -3754,11 +3754,11 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>CHAQUETA</t>
+          <t>BUZO</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>0.54</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="159">
@@ -3766,7 +3766,7 @@
         <v>45078</v>
       </c>
       <c r="B159" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -3775,11 +3775,11 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>CHAQUETA</t>
+          <t>BUZO</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>0.54</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="160">
@@ -3787,7 +3787,7 @@
         <v>45108</v>
       </c>
       <c r="B160" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -3796,11 +3796,11 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>CHAQUETA</t>
+          <t>BUZO</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>0.54</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="161">
@@ -3808,7 +3808,7 @@
         <v>45139</v>
       </c>
       <c r="B161" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -3817,11 +3817,11 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>CHAQUETA</t>
+          <t>BUZO</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>0.54</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="162">
@@ -3829,7 +3829,7 @@
         <v>45170</v>
       </c>
       <c r="B162" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -3838,11 +3838,11 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>CHAQUETA</t>
+          <t>BUZO</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>0.54</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="163">
@@ -3850,7 +3850,7 @@
         <v>45200</v>
       </c>
       <c r="B163" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -3859,11 +3859,11 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>CHAQUETA</t>
+          <t>BUZO</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>0.54</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="164">
@@ -3871,7 +3871,7 @@
         <v>45231</v>
       </c>
       <c r="B164" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -3880,11 +3880,11 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>CHAQUETA</t>
+          <t>BUZO</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>0.54</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="165">
@@ -3892,7 +3892,7 @@
         <v>45261</v>
       </c>
       <c r="B165" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -3901,11 +3901,11 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>CHAQUETA</t>
+          <t>BUZO</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>0.54</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="166">
@@ -3913,7 +3913,7 @@
         <v>45292</v>
       </c>
       <c r="B166" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -3922,11 +3922,11 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>CHAQUETA</t>
+          <t>BUZO</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>0.54</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="167">
@@ -3934,7 +3934,7 @@
         <v>45323</v>
       </c>
       <c r="B167" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -3943,11 +3943,11 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>CHAQUETA</t>
+          <t>BUZO</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>0.54</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="168">
@@ -3955,7 +3955,7 @@
         <v>44986</v>
       </c>
       <c r="B168" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -3964,19 +3964,17 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>BUZO</t>
-        </is>
-      </c>
-      <c r="E168" t="n">
-        <v>0.31</v>
-      </c>
+          <t>SET</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B169" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -3985,19 +3983,17 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>BUZO</t>
-        </is>
-      </c>
-      <c r="E169" t="n">
-        <v>0.31</v>
-      </c>
+          <t>SET</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B170" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -4006,19 +4002,17 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>BUZO</t>
-        </is>
-      </c>
-      <c r="E170" t="n">
-        <v>0.31</v>
-      </c>
+          <t>SET</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>45017</v>
+        <v>45078</v>
       </c>
       <c r="B171" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -4027,19 +4021,17 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>BUZO</t>
-        </is>
-      </c>
-      <c r="E171" t="n">
-        <v>0.31</v>
-      </c>
+          <t>SET</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>45047</v>
+        <v>45108</v>
       </c>
       <c r="B172" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -4048,19 +4040,17 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>BUZO</t>
-        </is>
-      </c>
-      <c r="E172" t="n">
-        <v>0.31</v>
-      </c>
+          <t>SET</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>45078</v>
+        <v>45139</v>
       </c>
       <c r="B173" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -4069,19 +4059,17 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>BUZO</t>
-        </is>
-      </c>
-      <c r="E173" t="n">
-        <v>0.31</v>
-      </c>
+          <t>SET</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>45108</v>
+        <v>45170</v>
       </c>
       <c r="B174" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -4090,19 +4078,17 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>BUZO</t>
-        </is>
-      </c>
-      <c r="E174" t="n">
-        <v>0.31</v>
-      </c>
+          <t>SET</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>45139</v>
+        <v>45200</v>
       </c>
       <c r="B175" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -4111,19 +4097,17 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>BUZO</t>
-        </is>
-      </c>
-      <c r="E175" t="n">
-        <v>0.31</v>
-      </c>
+          <t>SET</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>45170</v>
+        <v>45231</v>
       </c>
       <c r="B176" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -4132,19 +4116,17 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>BUZO</t>
-        </is>
-      </c>
-      <c r="E176" t="n">
-        <v>0.31</v>
-      </c>
+          <t>SET</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>45200</v>
+        <v>45261</v>
       </c>
       <c r="B177" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -4153,19 +4135,17 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>BUZO</t>
-        </is>
-      </c>
-      <c r="E177" t="n">
-        <v>0.31</v>
-      </c>
+          <t>SET</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>45231</v>
+        <v>45292</v>
       </c>
       <c r="B178" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -4174,19 +4154,17 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>BUZO</t>
-        </is>
-      </c>
-      <c r="E178" t="n">
-        <v>0.31</v>
-      </c>
+          <t>SET</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>45261</v>
+        <v>45323</v>
       </c>
       <c r="B179" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -4195,19 +4173,17 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>BUZO</t>
-        </is>
-      </c>
-      <c r="E179" t="n">
-        <v>0.31</v>
-      </c>
+          <t>SET</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>45292</v>
+        <v>44986</v>
       </c>
       <c r="B180" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -4216,19 +4192,19 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>BUZO</t>
+          <t>CAMISA MANGA CORTA</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>45323</v>
+        <v>44986</v>
       </c>
       <c r="B181" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -4237,19 +4213,19 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>BUZO</t>
+          <t>CAMISA MANGA CORTA</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B182" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -4258,19 +4234,19 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>SHORT</t>
+          <t>CAMISA MANGA CORTA</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B183" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -4279,19 +4255,19 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>SHORT</t>
+          <t>CAMISA MANGA CORTA</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B184" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -4300,19 +4276,19 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>SHORT</t>
+          <t>CAMISA MANGA CORTA</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>45017</v>
+        <v>45078</v>
       </c>
       <c r="B185" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -4321,19 +4297,19 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>SHORT</t>
+          <t>CAMISA MANGA CORTA</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>45047</v>
+        <v>45108</v>
       </c>
       <c r="B186" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -4342,19 +4318,19 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>SHORT</t>
+          <t>CAMISA MANGA CORTA</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>45078</v>
+        <v>45139</v>
       </c>
       <c r="B187" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -4363,19 +4339,19 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>SHORT</t>
+          <t>CAMISA MANGA CORTA</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>45108</v>
+        <v>45170</v>
       </c>
       <c r="B188" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -4384,19 +4360,19 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>SHORT</t>
+          <t>CAMISA MANGA CORTA</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>45139</v>
+        <v>45200</v>
       </c>
       <c r="B189" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -4405,19 +4381,19 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>SHORT</t>
+          <t>CAMISA MANGA CORTA</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>45170</v>
+        <v>45231</v>
       </c>
       <c r="B190" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -4426,19 +4402,19 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>SHORT</t>
+          <t>CAMISA MANGA CORTA</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>45200</v>
+        <v>45261</v>
       </c>
       <c r="B191" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -4447,19 +4423,19 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>SHORT</t>
+          <t>CAMISA MANGA CORTA</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>45231</v>
+        <v>45292</v>
       </c>
       <c r="B192" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -4468,19 +4444,19 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>SHORT</t>
+          <t>CAMISA MANGA CORTA</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>45261</v>
+        <v>45323</v>
       </c>
       <c r="B193" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -4489,19 +4465,19 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>SHORT</t>
+          <t>CAMISA MANGA CORTA</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>45292</v>
+        <v>44986</v>
       </c>
       <c r="B194" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -4519,10 +4495,10 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>45323</v>
+        <v>44986</v>
       </c>
       <c r="B195" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -4540,10 +4516,10 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B196" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -4552,19 +4528,19 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>BOTAS</t>
+          <t>SHORT</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>0.42</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B197" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -4573,19 +4549,19 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>BOTAS</t>
+          <t>SHORT</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>0.42</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B198" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -4594,19 +4570,19 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>BOTAS</t>
+          <t>SHORT</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>0.42</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>45017</v>
+        <v>45078</v>
       </c>
       <c r="B199" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -4615,19 +4591,19 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>BOTAS</t>
+          <t>SHORT</t>
         </is>
       </c>
       <c r="E199" t="n">
-        <v>0.42</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>45047</v>
+        <v>45108</v>
       </c>
       <c r="B200" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -4636,19 +4612,19 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>BOTAS</t>
+          <t>SHORT</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>0.42</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>45078</v>
+        <v>45139</v>
       </c>
       <c r="B201" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -4657,19 +4633,19 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>BOTAS</t>
+          <t>SHORT</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>0.42</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>45108</v>
+        <v>45170</v>
       </c>
       <c r="B202" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -4678,19 +4654,19 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>BOTAS</t>
+          <t>SHORT</t>
         </is>
       </c>
       <c r="E202" t="n">
-        <v>0.42</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>45139</v>
+        <v>45200</v>
       </c>
       <c r="B203" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -4699,19 +4675,19 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>BOTAS</t>
+          <t>SHORT</t>
         </is>
       </c>
       <c r="E203" t="n">
-        <v>0.42</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>45170</v>
+        <v>45231</v>
       </c>
       <c r="B204" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -4720,19 +4696,19 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>BOTAS</t>
+          <t>SHORT</t>
         </is>
       </c>
       <c r="E204" t="n">
-        <v>0.42</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>45200</v>
+        <v>45261</v>
       </c>
       <c r="B205" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -4741,16 +4717,16 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>BOTAS</t>
+          <t>SHORT</t>
         </is>
       </c>
       <c r="E205" t="n">
-        <v>0.42</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>45231</v>
+        <v>45292</v>
       </c>
       <c r="B206" t="n">
         <v>4</v>
@@ -4762,19 +4738,19 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>BOTAS</t>
+          <t>SHORT</t>
         </is>
       </c>
       <c r="E206" t="n">
-        <v>0.42</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>45261</v>
+        <v>45323</v>
       </c>
       <c r="B207" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -4783,16 +4759,16 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>BOTAS</t>
+          <t>SHORT</t>
         </is>
       </c>
       <c r="E207" t="n">
-        <v>0.42</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>45292</v>
+        <v>44986</v>
       </c>
       <c r="B208" t="n">
         <v>1</v>
@@ -4804,16 +4780,16 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>BOTAS</t>
+          <t>CAMISA MANGA LARGA</t>
         </is>
       </c>
       <c r="E208" t="n">
-        <v>0.42</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>45323</v>
+        <v>44986</v>
       </c>
       <c r="B209" t="n">
         <v>1</v>
@@ -4825,19 +4801,19 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>BOTAS</t>
+          <t>CAMISA MANGA LARGA</t>
         </is>
       </c>
       <c r="E209" t="n">
-        <v>0.42</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B210" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
@@ -4846,19 +4822,19 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>CAMISA MANGA CORTA</t>
+          <t>CAMISA MANGA LARGA</t>
         </is>
       </c>
       <c r="E210" t="n">
-        <v>0.3</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B211" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -4867,19 +4843,19 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>CAMISA MANGA CORTA</t>
+          <t>CAMISA MANGA LARGA</t>
         </is>
       </c>
       <c r="E211" t="n">
-        <v>0.3</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B212" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
@@ -4888,16 +4864,16 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>CAMISA MANGA CORTA</t>
+          <t>CAMISA MANGA LARGA</t>
         </is>
       </c>
       <c r="E212" t="n">
-        <v>0.3</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>45017</v>
+        <v>45078</v>
       </c>
       <c r="B213" t="n">
         <v>1</v>
@@ -4909,16 +4885,16 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>CAMISA MANGA CORTA</t>
+          <t>CAMISA MANGA LARGA</t>
         </is>
       </c>
       <c r="E213" t="n">
-        <v>0.3</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>45047</v>
+        <v>45108</v>
       </c>
       <c r="B214" t="n">
         <v>2</v>
@@ -4930,16 +4906,16 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>CAMISA MANGA CORTA</t>
+          <t>CAMISA MANGA LARGA</t>
         </is>
       </c>
       <c r="E214" t="n">
-        <v>0.3</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>45078</v>
+        <v>45139</v>
       </c>
       <c r="B215" t="n">
         <v>2</v>
@@ -4951,19 +4927,19 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>CAMISA MANGA CORTA</t>
+          <t>CAMISA MANGA LARGA</t>
         </is>
       </c>
       <c r="E215" t="n">
-        <v>0.3</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>45108</v>
+        <v>45170</v>
       </c>
       <c r="B216" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
@@ -4972,19 +4948,19 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>CAMISA MANGA CORTA</t>
+          <t>CAMISA MANGA LARGA</t>
         </is>
       </c>
       <c r="E216" t="n">
-        <v>0.3</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>45139</v>
+        <v>45200</v>
       </c>
       <c r="B217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
@@ -4993,16 +4969,16 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>CAMISA MANGA CORTA</t>
+          <t>CAMISA MANGA LARGA</t>
         </is>
       </c>
       <c r="E217" t="n">
-        <v>0.3</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>45170</v>
+        <v>45231</v>
       </c>
       <c r="B218" t="n">
         <v>2</v>
@@ -5014,19 +4990,19 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>CAMISA MANGA CORTA</t>
+          <t>CAMISA MANGA LARGA</t>
         </is>
       </c>
       <c r="E218" t="n">
-        <v>0.3</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>45200</v>
+        <v>45261</v>
       </c>
       <c r="B219" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
@@ -5035,19 +5011,19 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>CAMISA MANGA CORTA</t>
+          <t>CAMISA MANGA LARGA</t>
         </is>
       </c>
       <c r="E219" t="n">
-        <v>0.3</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>45231</v>
+        <v>45292</v>
       </c>
       <c r="B220" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
@@ -5056,19 +5032,19 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>CAMISA MANGA CORTA</t>
+          <t>CAMISA MANGA LARGA</t>
         </is>
       </c>
       <c r="E220" t="n">
-        <v>0.3</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>45261</v>
+        <v>45323</v>
       </c>
       <c r="B221" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
@@ -5077,19 +5053,19 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>CAMISA MANGA CORTA</t>
+          <t>CAMISA MANGA LARGA</t>
         </is>
       </c>
       <c r="E221" t="n">
-        <v>0.3</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>45292</v>
+        <v>44986</v>
       </c>
       <c r="B222" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
@@ -5098,16 +5074,14 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>CAMISA MANGA CORTA</t>
-        </is>
-      </c>
-      <c r="E222" t="n">
-        <v>0.3</v>
-      </c>
+          <t>VESTIDO MANGA LARGA</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>45323</v>
+        <v>45017</v>
       </c>
       <c r="B223" t="n">
         <v>1</v>
@@ -5119,16 +5093,14 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>CAMISA MANGA CORTA</t>
-        </is>
-      </c>
-      <c r="E223" t="n">
-        <v>0.3</v>
-      </c>
+          <t>VESTIDO MANGA LARGA</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>44986</v>
+        <v>45047</v>
       </c>
       <c r="B224" t="n">
         <v>1</v>
@@ -5140,16 +5112,14 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>MINIFALDA</t>
-        </is>
-      </c>
-      <c r="E224" t="n">
-        <v>0.36</v>
-      </c>
+          <t>VESTIDO MANGA LARGA</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>44986</v>
+        <v>45078</v>
       </c>
       <c r="B225" t="n">
         <v>1</v>
@@ -5161,16 +5131,14 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>MINIFALDA</t>
-        </is>
-      </c>
-      <c r="E225" t="n">
-        <v>0.36</v>
-      </c>
+          <t>VESTIDO MANGA LARGA</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>45017</v>
+        <v>45108</v>
       </c>
       <c r="B226" t="n">
         <v>1</v>
@@ -5182,16 +5150,14 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>MINIFALDA</t>
-        </is>
-      </c>
-      <c r="E226" t="n">
-        <v>0.36</v>
-      </c>
+          <t>VESTIDO MANGA LARGA</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>45017</v>
+        <v>45139</v>
       </c>
       <c r="B227" t="n">
         <v>1</v>
@@ -5203,19 +5169,17 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>MINIFALDA</t>
-        </is>
-      </c>
-      <c r="E227" t="n">
-        <v>0.36</v>
-      </c>
+          <t>VESTIDO MANGA LARGA</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>45047</v>
+        <v>45170</v>
       </c>
       <c r="B228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
@@ -5224,19 +5188,17 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>MINIFALDA</t>
-        </is>
-      </c>
-      <c r="E228" t="n">
-        <v>0.36</v>
-      </c>
+          <t>VESTIDO MANGA LARGA</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>45078</v>
+        <v>45200</v>
       </c>
       <c r="B229" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
@@ -5245,19 +5207,17 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>MINIFALDA</t>
-        </is>
-      </c>
-      <c r="E229" t="n">
-        <v>0.36</v>
-      </c>
+          <t>VESTIDO MANGA LARGA</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>45108</v>
+        <v>45231</v>
       </c>
       <c r="B230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
@@ -5266,19 +5226,17 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>MINIFALDA</t>
-        </is>
-      </c>
-      <c r="E230" t="n">
-        <v>0.36</v>
-      </c>
+          <t>VESTIDO MANGA LARGA</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>45139</v>
+        <v>45261</v>
       </c>
       <c r="B231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
@@ -5287,16 +5245,14 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>MINIFALDA</t>
-        </is>
-      </c>
-      <c r="E231" t="n">
-        <v>0.36</v>
-      </c>
+          <t>VESTIDO MANGA LARGA</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>45170</v>
+        <v>45292</v>
       </c>
       <c r="B232" t="n">
         <v>2</v>
@@ -5308,19 +5264,17 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>MINIFALDA</t>
-        </is>
-      </c>
-      <c r="E232" t="n">
-        <v>0.36</v>
-      </c>
+          <t>VESTIDO MANGA LARGA</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>45200</v>
+        <v>45323</v>
       </c>
       <c r="B233" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
@@ -5329,19 +5283,17 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>MINIFALDA</t>
-        </is>
-      </c>
-      <c r="E233" t="n">
-        <v>0.36</v>
-      </c>
+          <t>VESTIDO MANGA LARGA</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>45231</v>
+        <v>44986</v>
       </c>
       <c r="B234" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
@@ -5350,19 +5302,19 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>MINIFALDA</t>
+          <t>OVERALL CORTO</t>
         </is>
       </c>
       <c r="E234" t="n">
-        <v>0.36</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>45261</v>
+        <v>44986</v>
       </c>
       <c r="B235" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
@@ -5371,19 +5323,19 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>MINIFALDA</t>
+          <t>OVERALL CORTO</t>
         </is>
       </c>
       <c r="E235" t="n">
-        <v>0.36</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>45292</v>
+        <v>45017</v>
       </c>
       <c r="B236" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
@@ -5392,19 +5344,19 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>MINIFALDA</t>
+          <t>OVERALL CORTO</t>
         </is>
       </c>
       <c r="E236" t="n">
-        <v>0.36</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>45323</v>
+        <v>45017</v>
       </c>
       <c r="B237" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
@@ -5413,19 +5365,19 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>MINIFALDA</t>
+          <t>OVERALL CORTO</t>
         </is>
       </c>
       <c r="E237" t="n">
-        <v>0.36</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>44986</v>
+        <v>45047</v>
       </c>
       <c r="B238" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
@@ -5434,17 +5386,19 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>SET</t>
-        </is>
-      </c>
-      <c r="E238" t="inlineStr"/>
+          <t>OVERALL CORTO</t>
+        </is>
+      </c>
+      <c r="E238" t="n">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>45017</v>
+        <v>45078</v>
       </c>
       <c r="B239" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
@@ -5453,17 +5407,19 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>SET</t>
-        </is>
-      </c>
-      <c r="E239" t="inlineStr"/>
+          <t>OVERALL CORTO</t>
+        </is>
+      </c>
+      <c r="E239" t="n">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>45047</v>
+        <v>45108</v>
       </c>
       <c r="B240" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
@@ -5472,17 +5428,19 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>SET</t>
-        </is>
-      </c>
-      <c r="E240" t="inlineStr"/>
+          <t>OVERALL CORTO</t>
+        </is>
+      </c>
+      <c r="E240" t="n">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>45078</v>
+        <v>45139</v>
       </c>
       <c r="B241" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
@@ -5491,17 +5449,19 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>SET</t>
-        </is>
-      </c>
-      <c r="E241" t="inlineStr"/>
+          <t>OVERALL CORTO</t>
+        </is>
+      </c>
+      <c r="E241" t="n">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>45108</v>
+        <v>45170</v>
       </c>
       <c r="B242" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
@@ -5510,17 +5470,19 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>SET</t>
-        </is>
-      </c>
-      <c r="E242" t="inlineStr"/>
+          <t>OVERALL CORTO</t>
+        </is>
+      </c>
+      <c r="E242" t="n">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>45139</v>
+        <v>45200</v>
       </c>
       <c r="B243" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
@@ -5529,17 +5491,19 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>SET</t>
-        </is>
-      </c>
-      <c r="E243" t="inlineStr"/>
+          <t>OVERALL CORTO</t>
+        </is>
+      </c>
+      <c r="E243" t="n">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>45170</v>
+        <v>45231</v>
       </c>
       <c r="B244" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
@@ -5548,17 +5512,19 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>SET</t>
-        </is>
-      </c>
-      <c r="E244" t="inlineStr"/>
+          <t>OVERALL CORTO</t>
+        </is>
+      </c>
+      <c r="E244" t="n">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>45200</v>
+        <v>45261</v>
       </c>
       <c r="B245" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
@@ -5567,17 +5533,19 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>SET</t>
-        </is>
-      </c>
-      <c r="E245" t="inlineStr"/>
+          <t>OVERALL CORTO</t>
+        </is>
+      </c>
+      <c r="E245" t="n">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>45231</v>
+        <v>45292</v>
       </c>
       <c r="B246" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
@@ -5586,17 +5554,19 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>SET</t>
-        </is>
-      </c>
-      <c r="E246" t="inlineStr"/>
+          <t>OVERALL CORTO</t>
+        </is>
+      </c>
+      <c r="E246" t="n">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>45261</v>
+        <v>45323</v>
       </c>
       <c r="B247" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
@@ -5605,17 +5575,19 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>SET</t>
-        </is>
-      </c>
-      <c r="E247" t="inlineStr"/>
+          <t>OVERALL CORTO</t>
+        </is>
+      </c>
+      <c r="E247" t="n">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>45292</v>
+        <v>44986</v>
       </c>
       <c r="B248" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
@@ -5624,17 +5596,19 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>SET</t>
-        </is>
-      </c>
-      <c r="E248" t="inlineStr"/>
+          <t>CHAQUETA</t>
+        </is>
+      </c>
+      <c r="E248" t="n">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>45323</v>
+        <v>44986</v>
       </c>
       <c r="B249" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
@@ -5643,17 +5617,19 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>SET</t>
-        </is>
-      </c>
-      <c r="E249" t="inlineStr"/>
+          <t>CHAQUETA</t>
+        </is>
+      </c>
+      <c r="E249" t="n">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B250" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
@@ -5662,19 +5638,19 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>CAMISA MANGA LARGA</t>
+          <t>CHAQUETA</t>
         </is>
       </c>
       <c r="E250" t="n">
-        <v>0.21</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B251" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
@@ -5683,19 +5659,19 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>CAMISA MANGA LARGA</t>
+          <t>CHAQUETA</t>
         </is>
       </c>
       <c r="E251" t="n">
-        <v>0.21</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B252" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
@@ -5704,19 +5680,19 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>CAMISA MANGA LARGA</t>
+          <t>CHAQUETA</t>
         </is>
       </c>
       <c r="E252" t="n">
-        <v>0.21</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>45017</v>
+        <v>45078</v>
       </c>
       <c r="B253" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
@@ -5725,19 +5701,19 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>CAMISA MANGA LARGA</t>
+          <t>CHAQUETA</t>
         </is>
       </c>
       <c r="E253" t="n">
-        <v>0.21</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>45047</v>
+        <v>45108</v>
       </c>
       <c r="B254" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
@@ -5746,19 +5722,19 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>CAMISA MANGA LARGA</t>
+          <t>CHAQUETA</t>
         </is>
       </c>
       <c r="E254" t="n">
-        <v>0.21</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>45078</v>
+        <v>45139</v>
       </c>
       <c r="B255" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
@@ -5767,19 +5743,19 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>CAMISA MANGA LARGA</t>
+          <t>CHAQUETA</t>
         </is>
       </c>
       <c r="E255" t="n">
-        <v>0.21</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>45108</v>
+        <v>45170</v>
       </c>
       <c r="B256" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
@@ -5788,19 +5764,19 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>CAMISA MANGA LARGA</t>
+          <t>CHAQUETA</t>
         </is>
       </c>
       <c r="E256" t="n">
-        <v>0.21</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>45139</v>
+        <v>45200</v>
       </c>
       <c r="B257" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
@@ -5809,19 +5785,19 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>CAMISA MANGA LARGA</t>
+          <t>CHAQUETA</t>
         </is>
       </c>
       <c r="E257" t="n">
-        <v>0.21</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>45170</v>
+        <v>45231</v>
       </c>
       <c r="B258" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
@@ -5830,19 +5806,19 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>CAMISA MANGA LARGA</t>
+          <t>CHAQUETA</t>
         </is>
       </c>
       <c r="E258" t="n">
-        <v>0.21</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>45200</v>
+        <v>45261</v>
       </c>
       <c r="B259" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
@@ -5851,16 +5827,16 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>CAMISA MANGA LARGA</t>
+          <t>CHAQUETA</t>
         </is>
       </c>
       <c r="E259" t="n">
-        <v>0.21</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>45231</v>
+        <v>45292</v>
       </c>
       <c r="B260" t="n">
         <v>2</v>
@@ -5872,19 +5848,19 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>CAMISA MANGA LARGA</t>
+          <t>CHAQUETA</t>
         </is>
       </c>
       <c r="E260" t="n">
-        <v>0.21</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>45261</v>
+        <v>45323</v>
       </c>
       <c r="B261" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
@@ -5893,19 +5869,19 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>CAMISA MANGA LARGA</t>
+          <t>CHAQUETA</t>
         </is>
       </c>
       <c r="E261" t="n">
-        <v>0.21</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>45292</v>
+        <v>44986</v>
       </c>
       <c r="B262" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
@@ -5914,19 +5890,19 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>CAMISA MANGA LARGA</t>
+          <t>BOTAS</t>
         </is>
       </c>
       <c r="E262" t="n">
-        <v>0.21</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>45323</v>
+        <v>44986</v>
       </c>
       <c r="B263" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
@@ -5935,16 +5911,16 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>CAMISA MANGA LARGA</t>
+          <t>BOTAS</t>
         </is>
       </c>
       <c r="E263" t="n">
-        <v>0.21</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B264" t="n">
         <v>2</v>
@@ -5956,17 +5932,19 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>VESTIDO MANGA LARGA</t>
-        </is>
-      </c>
-      <c r="E264" t="inlineStr"/>
+          <t>BOTAS</t>
+        </is>
+      </c>
+      <c r="E264" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
         <v>45017</v>
       </c>
       <c r="B265" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
@@ -5975,17 +5953,19 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>VESTIDO MANGA LARGA</t>
-        </is>
-      </c>
-      <c r="E265" t="inlineStr"/>
+          <t>BOTAS</t>
+        </is>
+      </c>
+      <c r="E265" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
         <v>45047</v>
       </c>
       <c r="B266" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
@@ -5994,17 +5974,19 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>VESTIDO MANGA LARGA</t>
-        </is>
-      </c>
-      <c r="E266" t="inlineStr"/>
+          <t>BOTAS</t>
+        </is>
+      </c>
+      <c r="E266" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
         <v>45078</v>
       </c>
       <c r="B267" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
@@ -6013,17 +5995,19 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>VESTIDO MANGA LARGA</t>
-        </is>
-      </c>
-      <c r="E267" t="inlineStr"/>
+          <t>BOTAS</t>
+        </is>
+      </c>
+      <c r="E267" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
         <v>45108</v>
       </c>
       <c r="B268" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
@@ -6032,17 +6016,19 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>VESTIDO MANGA LARGA</t>
-        </is>
-      </c>
-      <c r="E268" t="inlineStr"/>
+          <t>BOTAS</t>
+        </is>
+      </c>
+      <c r="E268" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
         <v>45139</v>
       </c>
       <c r="B269" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
@@ -6051,17 +6037,19 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>VESTIDO MANGA LARGA</t>
-        </is>
-      </c>
-      <c r="E269" t="inlineStr"/>
+          <t>BOTAS</t>
+        </is>
+      </c>
+      <c r="E269" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
         <v>45170</v>
       </c>
       <c r="B270" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
@@ -6070,17 +6058,19 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>VESTIDO MANGA LARGA</t>
-        </is>
-      </c>
-      <c r="E270" t="inlineStr"/>
+          <t>BOTAS</t>
+        </is>
+      </c>
+      <c r="E270" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
         <v>45200</v>
       </c>
       <c r="B271" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
@@ -6089,17 +6079,19 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>VESTIDO MANGA LARGA</t>
-        </is>
-      </c>
-      <c r="E271" t="inlineStr"/>
+          <t>BOTAS</t>
+        </is>
+      </c>
+      <c r="E271" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
         <v>45231</v>
       </c>
       <c r="B272" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
@@ -6108,17 +6100,19 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>VESTIDO MANGA LARGA</t>
-        </is>
-      </c>
-      <c r="E272" t="inlineStr"/>
+          <t>BOTAS</t>
+        </is>
+      </c>
+      <c r="E272" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
         <v>45261</v>
       </c>
       <c r="B273" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
@@ -6127,17 +6121,19 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>VESTIDO MANGA LARGA</t>
-        </is>
-      </c>
-      <c r="E273" t="inlineStr"/>
+          <t>BOTAS</t>
+        </is>
+      </c>
+      <c r="E273" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="B274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
@@ -6146,10 +6142,12 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>VESTIDO MANGA LARGA</t>
-        </is>
-      </c>
-      <c r="E274" t="inlineStr"/>
+          <t>BOTAS</t>
+        </is>
+      </c>
+      <c r="E274" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
@@ -6165,10 +6163,12 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>VESTIDO MANGA LARGA</t>
-        </is>
-      </c>
-      <c r="E275" t="inlineStr"/>
+          <t>BOTAS</t>
+        </is>
+      </c>
+      <c r="E275" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
@@ -6184,11 +6184,11 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>OVERALL CORTO</t>
+          <t>MINIFALDA</t>
         </is>
       </c>
       <c r="E276" t="n">
-        <v>0.59</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="277">
@@ -6205,11 +6205,11 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>OVERALL CORTO</t>
+          <t>MINIFALDA</t>
         </is>
       </c>
       <c r="E277" t="n">
-        <v>0.59</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="278">
@@ -6217,7 +6217,7 @@
         <v>45017</v>
       </c>
       <c r="B278" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
@@ -6226,11 +6226,11 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>OVERALL CORTO</t>
+          <t>MINIFALDA</t>
         </is>
       </c>
       <c r="E278" t="n">
-        <v>0.59</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="279">
@@ -6238,7 +6238,7 @@
         <v>45017</v>
       </c>
       <c r="B279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
@@ -6247,11 +6247,11 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>OVERALL CORTO</t>
+          <t>MINIFALDA</t>
         </is>
       </c>
       <c r="E279" t="n">
-        <v>0.59</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="280">
@@ -6259,7 +6259,7 @@
         <v>45047</v>
       </c>
       <c r="B280" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
@@ -6268,11 +6268,11 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>OVERALL CORTO</t>
+          <t>MINIFALDA</t>
         </is>
       </c>
       <c r="E280" t="n">
-        <v>0.59</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="281">
@@ -6280,7 +6280,7 @@
         <v>45078</v>
       </c>
       <c r="B281" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
@@ -6289,11 +6289,11 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>OVERALL CORTO</t>
+          <t>MINIFALDA</t>
         </is>
       </c>
       <c r="E281" t="n">
-        <v>0.59</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="282">
@@ -6301,7 +6301,7 @@
         <v>45108</v>
       </c>
       <c r="B282" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
@@ -6310,11 +6310,11 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>OVERALL CORTO</t>
+          <t>MINIFALDA</t>
         </is>
       </c>
       <c r="E282" t="n">
-        <v>0.59</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="283">
@@ -6322,7 +6322,7 @@
         <v>45139</v>
       </c>
       <c r="B283" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
@@ -6331,11 +6331,11 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>OVERALL CORTO</t>
+          <t>MINIFALDA</t>
         </is>
       </c>
       <c r="E283" t="n">
-        <v>0.59</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="284">
@@ -6343,7 +6343,7 @@
         <v>45170</v>
       </c>
       <c r="B284" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
@@ -6352,11 +6352,11 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>OVERALL CORTO</t>
+          <t>MINIFALDA</t>
         </is>
       </c>
       <c r="E284" t="n">
-        <v>0.59</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="285">
@@ -6364,7 +6364,7 @@
         <v>45200</v>
       </c>
       <c r="B285" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
@@ -6373,11 +6373,11 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>OVERALL CORTO</t>
+          <t>MINIFALDA</t>
         </is>
       </c>
       <c r="E285" t="n">
-        <v>0.59</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="286">
@@ -6385,7 +6385,7 @@
         <v>45231</v>
       </c>
       <c r="B286" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
@@ -6394,11 +6394,11 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>OVERALL CORTO</t>
+          <t>MINIFALDA</t>
         </is>
       </c>
       <c r="E286" t="n">
-        <v>0.59</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="287">
@@ -6406,7 +6406,7 @@
         <v>45261</v>
       </c>
       <c r="B287" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
@@ -6415,11 +6415,11 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>OVERALL CORTO</t>
+          <t>MINIFALDA</t>
         </is>
       </c>
       <c r="E287" t="n">
-        <v>0.59</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="288">
@@ -6427,7 +6427,7 @@
         <v>45292</v>
       </c>
       <c r="B288" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
@@ -6436,11 +6436,11 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>OVERALL CORTO</t>
+          <t>MINIFALDA</t>
         </is>
       </c>
       <c r="E288" t="n">
-        <v>0.59</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="289">
@@ -6448,7 +6448,7 @@
         <v>45323</v>
       </c>
       <c r="B289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
@@ -6457,11 +6457,11 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>OVERALL CORTO</t>
+          <t>MINIFALDA</t>
         </is>
       </c>
       <c r="E289" t="n">
-        <v>0.59</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="290">
